--- a/ContactInformation/HR Information.xlsx
+++ b/ContactInformation/HR Information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
   <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView activeTab="0" windowWidth="14400" windowHeight="6400"/>
+    <workbookView activeTab="0" windowWidth="14400" windowHeight="6760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,14 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+  <si>
+    <t>linkedin</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -96,7 +104,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -140,12 +148,44 @@
       <c r="D2" s="2">
         <v>42251</v>
       </c>
-      <c r="E2" t="str">
-        <v>linkedin</v>
+      <c r="E2" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" customHeight="1" ht="15.75"/>
-    <row r="4" spans="1:26" customHeight="1" ht="15.75"/>
+    <row r="3" spans="1:26" customHeight="1" ht="15.75">
+      <c r="A3" t="str">
+        <v>Goldman Sachs</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Eric Heller</v>
+      </c>
+      <c r="C3" t="str">
+        <v>eric.heller@gs.com</v>
+      </c>
+      <c r="D3" s="2">
+        <v>42244</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" customHeight="1" ht="15.75">
+      <c r="A4" t="str">
+        <v>JetSmarter</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Josh Sheppard </v>
+      </c>
+      <c r="C4" t="str">
+        <v>Jsheppard@jetsmarter.com </v>
+      </c>
+      <c r="D4" s="2">
+        <v>42243</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:26" customHeight="1" ht="15.75"/>
     <row r="6" spans="1:26" customHeight="1" ht="15.75"/>
     <row r="7" spans="1:26" customHeight="1" ht="15.75"/>
